--- a/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Test Data .xlsx
+++ b/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Test Data .xlsx
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
